--- a/public/assets/documents/import_suppliers.xlsx
+++ b/public/assets/documents/import_suppliers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\Angular\PointOfSale\pos\public\assets\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80189F29-6268-42D8-BF18-5758C6D1E029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CEEF64A-EAFE-4002-A9E2-C3F3E4871949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{000AA59F-274F-4BCB-BB26-CDEE3AF30FAC}"/>
   </bookViews>
@@ -415,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD6D063-E5B7-43D7-9514-57A85E4C1C8B}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1"/>
@@ -455,9 +455,6 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
